--- a/Assignments/LUKAS/Book1.xlsx
+++ b/Assignments/LUKAS/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="15">
   <si>
     <t>V</t>
   </si>
@@ -33,6 +33,42 @@
   </si>
   <si>
     <t>From V</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Visited/Shortest path</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
   </si>
 </sst>
 </file>
@@ -56,12 +92,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,10 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,63 +415,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K73" sqref="A39:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="2.9296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
       <c r="D2">
@@ -425,8 +484,11 @@
       <c r="K2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -439,43 +501,44 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -488,7 +551,7 @@
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>25</v>
       </c>
       <c r="I6">
@@ -498,12 +561,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -518,42 +584,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -563,7 +629,7 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>30</v>
       </c>
       <c r="E10">
@@ -582,12 +648,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -595,9 +664,6 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11">
         <v>5</v>
       </c>
@@ -608,42 +674,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K13">
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -668,16 +734,28 @@
       <c r="I14">
         <v>90</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
       <c r="E15">
         <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -693,35 +771,35 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17">
+      <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J17">
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17">
+      <c r="G17" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -737,7 +815,7 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>45</v>
       </c>
       <c r="F18" s="2">
@@ -757,49 +835,64 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
       <c r="E19">
         <v>3</v>
       </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="I19">
         <v>5</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="E21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J21">
+      <c r="F21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K21">
+      <c r="G21" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -821,7 +914,7 @@
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>40</v>
       </c>
       <c r="I22">
@@ -835,46 +928,64 @@
       <c r="A23" t="s">
         <v>2</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="I23">
         <v>5</v>
       </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I25">
+      <c r="E25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J25">
+      <c r="F25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25">
+      <c r="G25" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -905,7 +1016,7 @@
       <c r="I26">
         <v>50</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="6">
         <v>40</v>
       </c>
       <c r="K26">
@@ -916,6 +1027,24 @@
       <c r="A27" t="s">
         <v>2</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
       <c r="H27">
         <v>6</v>
       </c>
@@ -924,41 +1053,44 @@
       </c>
       <c r="J27">
         <v>6</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I29">
+      <c r="E29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J29">
+      <c r="F29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K29">
+      <c r="G29" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -986,7 +1118,7 @@
       <c r="H30" s="2">
         <v>80</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="6">
         <v>45</v>
       </c>
       <c r="J30" s="2">
@@ -1000,46 +1132,70 @@
       <c r="A31" t="s">
         <v>2</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
       <c r="H31">
         <v>6</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
+      <c r="J31" s="2">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I33">
+      <c r="E33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J33">
+      <c r="F33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K33">
+      <c r="G33" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -1064,7 +1220,7 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="7">
         <v>15</v>
       </c>
       <c r="I34">
@@ -1081,13 +1237,1021 @@
       <c r="A35" t="s">
         <v>2</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
       <c r="H35">
         <v>8</v>
       </c>
       <c r="I35">
         <v>9</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="6">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>75</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>90</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>20</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>75</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>75</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>90</v>
+      </c>
+      <c r="K48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>75</v>
+      </c>
+      <c r="I52">
+        <v>90</v>
+      </c>
+      <c r="K52" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>45</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2">
+        <v>50</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2">
+        <v>10</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>40</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2">
+        <v>50</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" s="2">
+        <v>50</v>
+      </c>
+      <c r="J64" s="6">
+        <v>40</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>4</v>
+      </c>
+      <c r="H65" s="2">
+        <v>6</v>
+      </c>
+      <c r="I65" s="2">
+        <v>10</v>
+      </c>
+      <c r="J65" s="2">
+        <v>6</v>
+      </c>
+      <c r="K65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" s="6">
+        <v>45</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2">
+        <v>4</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="2">
+        <v>9</v>
+      </c>
+      <c r="J69" s="2">
+        <v>6</v>
+      </c>
+      <c r="K69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>4</v>
+      </c>
+      <c r="H73" s="2">
+        <v>8</v>
+      </c>
+      <c r="I73" s="2">
+        <v>9</v>
+      </c>
+      <c r="J73" s="2">
+        <v>6</v>
+      </c>
+      <c r="K73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M74" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M75" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
